--- a/InputFiles/RecipeIngredients.xlsx
+++ b/InputFiles/RecipeIngredients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecwatts/Desktop/Uni/Oxford DTP/GitHub Projects/GroceryList/InputFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Home/GitHubProjects/GroceryList/InputFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86857B5-5D47-7F44-BE37-25C33C75E94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA77675A-7EF5-1542-85EC-E67D9BEE50FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-280" yWindow="460" windowWidth="14420" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14420" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="104">
   <si>
     <t>Recipe</t>
   </si>
@@ -339,6 +336,12 @@
   </si>
   <si>
     <t>jar</t>
+  </si>
+  <si>
+    <t>Protein Shake</t>
+  </si>
+  <si>
+    <t>Almond milk</t>
   </si>
 </sst>
 </file>
@@ -392,15 +395,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,10 +620,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA130"/>
+  <dimension ref="A1:AA134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1041,7 +1042,7 @@
       <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <v>70</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1055,7 +1056,7 @@
       <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1066,7 +1067,7 @@
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="3">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1080,7 +1081,7 @@
       <c r="B32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1091,7 +1092,7 @@
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1102,7 +1103,7 @@
       <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1113,7 +1114,7 @@
       <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="3">
         <v>2</v>
       </c>
       <c r="D35" t="s">
@@ -1127,7 +1128,7 @@
       <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="3">
         <v>200</v>
       </c>
       <c r="D36" t="s">
@@ -1141,7 +1142,7 @@
       <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1152,7 +1153,7 @@
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="3">
         <v>400</v>
       </c>
       <c r="D38" t="s">
@@ -1166,7 +1167,7 @@
       <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="3">
         <v>500</v>
       </c>
       <c r="D39" t="s">
@@ -1180,7 +1181,7 @@
       <c r="B40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" t="s">
@@ -1194,7 +1195,7 @@
       <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="3">
         <v>100</v>
       </c>
       <c r="D41" t="s">
@@ -1208,7 +1209,7 @@
       <c r="B42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" t="s">
@@ -1222,7 +1223,7 @@
       <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" t="s">
@@ -1236,7 +1237,7 @@
       <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44">
         <v>600</v>
       </c>
       <c r="D44" t="s">
@@ -1250,7 +1251,7 @@
       <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="3">
         <v>200</v>
       </c>
       <c r="D45" t="s">
@@ -1264,7 +1265,7 @@
       <c r="B46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1275,7 +1276,7 @@
       <c r="B47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="3">
         <v>4</v>
       </c>
     </row>
@@ -1286,7 +1287,7 @@
       <c r="B48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" t="s">
@@ -1300,7 +1301,7 @@
       <c r="B49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="3">
         <v>0.5</v>
       </c>
       <c r="D49" t="s">
@@ -1314,7 +1315,7 @@
       <c r="B50" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" t="s">
@@ -1328,7 +1329,7 @@
       <c r="B51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="3">
         <v>2</v>
       </c>
       <c r="D51" t="s">
@@ -1342,7 +1343,7 @@
       <c r="B52" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="3">
         <v>300</v>
       </c>
       <c r="D52" t="s">
@@ -1367,7 +1368,7 @@
       <c r="B54" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="3">
         <v>30</v>
       </c>
       <c r="D54" t="s">
@@ -2410,6 +2411,62 @@
       </c>
       <c r="D130" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C134">
+        <v>250</v>
+      </c>
+      <c r="D134" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
